--- a/MFC_Tests/MFC_Flow_Files/FlowConcentrationCalculator.xlsx
+++ b/MFC_Tests/MFC_Flow_Files/FlowConcentrationCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcolosimo\Documents\GitHub\SCUID-APL\MFC_Tests\MFC_Flow_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24B79A94-9A58-48F7-9E43-741B55A9D995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B5353F-2FF2-4114-872E-96DC07308C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -174,6 +174,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -558,15 +560,15 @@
     </row>
     <row r="18" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="D18" s="6">
         <f>C18/1000/30.01*$C$2*0.001/(104/1000/30.01)/0.001</f>
-        <v>2.5384615384615388</v>
+        <v>0.21153846153846154</v>
       </c>
       <c r="E18" s="6">
         <f>$C$2-D18</f>
-        <v>217.46153846153845</v>
+        <v>219.78846153846155</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>8</v>
@@ -607,15 +609,15 @@
     </row>
     <row r="22" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="D22" s="6">
-        <f>C22/1000/30.01*$C$2*0.001/(10/1000/30.01)/0.001</f>
-        <v>2.1999999999999997</v>
+        <f>C22/1000/30.01*$C$2*0.001/(12.9/1000/30.01)/0.001</f>
+        <v>25.581395348837209</v>
       </c>
       <c r="E22" s="6">
         <f>$C$2-D22</f>
-        <v>217.8</v>
+        <v>194.41860465116278</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>8</v>
@@ -664,18 +666,34 @@
         <f>$C$2-D27</f>
         <v>217.8</v>
       </c>
+      <c r="F27" s="10">
+        <f>C27/1000/30.01*$C$2*0.001/(104/1000/30.01)/0.001</f>
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="G27" s="10">
+        <f>$C$2-F27</f>
+        <v>219.78846153846155</v>
+      </c>
     </row>
     <row r="28" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>0.25</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" ref="D28:D33" si="0">C28/1000/30.01*$C$2*0.001/(10/1000/30.01)/0.001</f>
+        <f t="shared" ref="D28:D34" si="0">C28/1000/30.01*$C$2*0.001/(10/1000/30.01)/0.001</f>
         <v>5.4999999999999991</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" ref="E28:E33" si="1">$C$2-D28</f>
+        <f t="shared" ref="E28:E34" si="1">$C$2-D28</f>
         <v>214.5</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" ref="F28:F34" si="2">C28/1000/30.01*$C$2*0.001/(104/1000/30.01)/0.001</f>
+        <v>0.52884615384615385</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" ref="G28:G34" si="3">$C$2-F28</f>
+        <v>219.47115384615384</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -690,6 +708,14 @@
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
+      <c r="F29" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0576923076923077</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="3"/>
+        <v>218.94230769230768</v>
+      </c>
     </row>
     <row r="30" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30">
@@ -703,6 +729,14 @@
         <f t="shared" si="1"/>
         <v>203.5</v>
       </c>
+      <c r="F30" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5865384615384617</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="3"/>
+        <v>218.41346153846155</v>
+      </c>
     </row>
     <row r="31" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31">
@@ -716,24 +750,92 @@
         <f t="shared" si="1"/>
         <v>200.2</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F31" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9038461538461537</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="3"/>
+        <v>218.09615384615384</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="0"/>
+        <v>21.999999999999996</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1153846153846154</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="3"/>
+        <v>217.88461538461539</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1.2</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="1"/>
+        <v>193.6</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5384615384615388</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="3"/>
+        <v>217.46153846153845</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="0"/>
+        <v>32.999999999999993</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="2"/>
+        <v>3.1730769230769234</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="3"/>
+        <v>216.82692307692307</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1688,6 +1790,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MFC_Tests/MFC_Flow_Files/FlowConcentrationCalculator.xlsx
+++ b/MFC_Tests/MFC_Flow_Files/FlowConcentrationCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcolosimo\Documents\GitHub\SCUID-APL\MFC_Tests\MFC_Flow_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B5353F-2FF2-4114-872E-96DC07308C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23A06BD-E9F5-4435-A85C-6379E61AB268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -677,23 +677,23 @@
     </row>
     <row r="28" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" ref="D28:D34" si="0">C28/1000/30.01*$C$2*0.001/(10/1000/30.01)/0.001</f>
-        <v>5.4999999999999991</v>
+        <v>6.6</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" ref="E28:E34" si="1">$C$2-D28</f>
-        <v>214.5</v>
+        <v>213.4</v>
       </c>
       <c r="F28" s="10">
         <f t="shared" ref="F28:F34" si="2">C28/1000/30.01*$C$2*0.001/(104/1000/30.01)/0.001</f>
-        <v>0.52884615384615385</v>
+        <v>0.63461538461538469</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" ref="G28:G34" si="3">$C$2-F28</f>
-        <v>219.47115384615384</v>
+        <v>219.36538461538461</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
